--- a/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
+++ b/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\34. totalparty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6C8085-7A62-4507-84CA-818C2951301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE287874-2151-4FA7-A034-13F3B056EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,6 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
     <t>r512g11-g61a-6sa</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>[3213362761367|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -805,13 +805,13 @@
     </row>
     <row r="2" spans="1:50 16383:16383" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
@@ -898,7 +898,7 @@
         <v>65</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>

--- a/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
+++ b/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE287874-2151-4FA7-A034-13F3B056EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7BA549-6DB2-422F-9350-8EFF99FD4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t>[3213362761367|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
+++ b/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7BA549-6DB2-422F-9350-8EFF99FD4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C5C1BB-67B0-4F76-A807-C5309145A3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>contractNo</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A1:XFC996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +906,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>51</v>

--- a/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
+++ b/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C5C1BB-67B0-4F76-A807-C5309145A3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FE1E79-A852-44B6-B28D-96AC2EE6585F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,10 +240,10 @@
     <t>[3213362761367|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>69</v>
@@ -906,7 +906,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>51</v>

--- a/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
+++ b/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83755DA7-71A5-4E8B-9EC4-9FDB583DACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4004AE25-03B8-49EC-9656-1593B31D031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
+++ b/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4004AE25-03B8-49EC-9656-1593B31D031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876273C6-B8C3-4124-BE72-F843B279BDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -311,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,8 +610,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFC996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
+++ b/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D0695B-32A6-421D-8071-5B63B37D4CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803EE0CF-C9E5-4ED9-8414-A2893853B446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -311,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
+++ b/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803EE0CF-C9E5-4ED9-8414-A2893853B446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728D1E76-B255-48E2-8238-322322EB5069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
+++ b/Data Files/Input Validation/34. totalparty/Auto_TotalParty_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728D1E76-B255-48E2-8238-322322EB5069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323F8718-83D4-4616-9A6F-971EF1DCB917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
